--- a/Gruppo Tradizionale con sottogruppi Metha e Maropi.xlsx
+++ b/Gruppo Tradizionale con sottogruppi Metha e Maropi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DA52A720-6CFC-420D-90C3-D32FC8FE7944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A992DC-7270-9E47-AD5C-4F339267F836}"/>
   <bookViews>
-    <workbookView xWindow="-35080" yWindow="-1700" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="da T0 a T12" sheetId="1" r:id="rId1"/>
@@ -7301,6 +7301,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -7590,7 +7594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GR143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:P2"/>
     </sheetView>
@@ -27112,9 +27116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FD83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
